--- a/biology/Botanique/Pedicularis_sceptrum-carolinum/Pedicularis_sceptrum-carolinum.xlsx
+++ b/biology/Botanique/Pedicularis_sceptrum-carolinum/Pedicularis_sceptrum-carolinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pedicularis sceptrum-carolinum est une espèce de plantes herbacées appartenant à la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[2] ou à la famille des Orobanchaceae selon la classification phylogénétique. On la trouve dans le continent eurasiatique. Elle fleurit de fin juin à août. Cette espèce est appelée « sceptre de Charlemagne », " Karlszepter " en allemand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pedicularis sceptrum-carolinum est une espèce de plantes herbacées appartenant à la famille des Scrophulariaceae selon la classification classique de Cronquist (1981) ou à la famille des Orobanchaceae selon la classification phylogénétique. On la trouve dans le continent eurasiatique. Elle fleurit de fin juin à août. Cette espèce est appelée « sceptre de Charlemagne », " Karlszepter " en allemand.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pedicularis sceptrum-carolinum se rencontre dans les régions prémontagneuses d'Europe centrale, de l'Est et du Nord (par exemple en Allemagne, Autriche, Russie), ainsi qu'en Asie centrale (Kazakhstan, Mongolie et Mongolie-Intérieure), en Chine dans le Heilongjiang, le Jilin et le Liaoning, au Japon et en Corée. Cette espèce croît dans les bois et bosquets humides, les bords de rivières et les prés marécageux, jusqu'à 500 mètres d'altitude.
 			Inflorescence d'un épi.
